--- a/II. Software Technologies & Design - Group 3A/STD 3A - results.xlsx
+++ b/II. Software Technologies & Design - Group 3A/STD 3A - results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Име</t>
   </si>
@@ -136,8 +136,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C20" totalsRowShown="0">
-  <autoFilter ref="A1:C20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
+  <autoFilter ref="A1:C19"/>
+  <sortState ref="A2:C19">
+    <sortCondition ref="B1:B19"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="Име"/>
     <tableColumn id="2" name="Факултетен номер"/>
@@ -434,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -460,21 +463,21 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>1601681083</v>
+        <v>1601681075</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>1601681075</v>
+        <v>1601681076</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -482,21 +485,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>1601681077</v>
+      </c>
+      <c r="C4">
         <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1601681078</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1601681086</v>
+        <v>1601681078</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -504,32 +507,32 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1601681087</v>
+        <v>1601681079</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>1601681090</v>
+        <v>1601681079</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>1601681091</v>
+        <v>1601681080</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -537,10 +540,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>1601681079</v>
+        <v>1601681082</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -548,112 +551,101 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1601681089</v>
+        <v>1601681083</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>1601681080</v>
+        <v>1601681084</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1601681087</v>
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1601681085</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>1601681079</v>
+        <v>1601681086</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>1601681088</v>
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1601681087</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>1601681082</v>
+        <v>1601681088</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>1601681085</v>
+        <v>1601681089</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>1601681077</v>
+        <v>1601681090</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>1601681076</v>
+        <v>1601681091</v>
       </c>
       <c r="C18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>1601681084</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/II. Software Technologies & Design - Group 3A/STD 3A - results.xlsx
+++ b/II. Software Technologies & Design - Group 3A/STD 3A - results.xlsx
@@ -440,7 +440,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -521,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>1601681079</v>
+        <v>1601681081</v>
       </c>
       <c r="C7">
         <v>5</v>

--- a/II. Software Technologies & Design - Group 3A/STD 3A - results.xlsx
+++ b/II. Software Technologies & Design - Group 3A/STD 3A - results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Име</t>
   </si>
@@ -22,9 +22,6 @@
     <t>Факултетен номер</t>
   </si>
   <si>
-    <t>Оценка</t>
-  </si>
-  <si>
     <t>Ася Полянкова</t>
   </si>
   <si>
@@ -74,6 +71,18 @@
   </si>
   <si>
     <t>Даниел Петров</t>
+  </si>
+  <si>
+    <t>Оценка контролно 1</t>
+  </si>
+  <si>
+    <t>Оценка контролно 2</t>
+  </si>
+  <si>
+    <t>Текуща оценка</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -115,9 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,15 +148,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
-  <autoFilter ref="A1:C19"/>
-  <sortState ref="A2:C19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E19" totalsRowShown="0">
+  <autoFilter ref="A1:E19"/>
+  <sortState ref="A2:E18">
     <sortCondition ref="B1:B19"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="5">
     <tableColumn id="1" name="Име"/>
     <tableColumn id="2" name="Факултетен номер"/>
-    <tableColumn id="3" name="Оценка"/>
+    <tableColumn id="3" name="Оценка контролно 1"/>
+    <tableColumn id="4" name="Оценка контролно 2"/>
+    <tableColumn id="5" name="Текуща оценка"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -437,20 +451,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.453125" customWidth="1"/>
     <col min="2" max="2" width="27.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -458,12 +474,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
       </c>
       <c r="B2">
         <v>1601681075</v>
@@ -471,10 +493,16 @@
       <c r="C2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>1601681076</v>
@@ -482,10 +510,16 @@
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>1601681077</v>
@@ -493,10 +527,16 @@
       <c r="C4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>1601681078</v>
@@ -504,10 +544,16 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1601681079</v>
@@ -515,32 +561,50 @@
       <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>1601681081</v>
+        <v>1601681080</v>
       </c>
       <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1601681080</v>
+        <v>1601681081</v>
       </c>
       <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1601681082</v>
@@ -548,10 +612,16 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>1601681083</v>
@@ -559,10 +629,16 @@
       <c r="C10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>1601681084</v>
@@ -570,10 +646,16 @@
       <c r="C11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>1601681085</v>
@@ -581,10 +663,16 @@
       <c r="C12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>1601681086</v>
@@ -592,10 +680,16 @@
       <c r="C13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="1">
         <v>1601681087</v>
@@ -603,10 +697,16 @@
       <c r="C14">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1601681088</v>
@@ -614,10 +714,16 @@
       <c r="C15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>1601681089</v>
@@ -625,10 +731,16 @@
       <c r="C16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1601681090</v>
@@ -636,15 +748,27 @@
       <c r="C17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>1601681091</v>
       </c>
       <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
         <v>6</v>
       </c>
     </row>
